--- a/data/pca/factorExposure/factorExposure_2011-03-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +738,54 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.008320814557806307</v>
+        <v>-0.01345894023468662</v>
       </c>
       <c r="C2">
-        <v>0.0007148676951466928</v>
+        <v>-0.007769972071141652</v>
       </c>
       <c r="D2">
-        <v>-0.04290704036792689</v>
+        <v>0.008881779810671751</v>
       </c>
       <c r="E2">
-        <v>0.004059689922345153</v>
+        <v>-0.00186374411425095</v>
       </c>
       <c r="F2">
-        <v>-0.001018151683898696</v>
+        <v>-0.03172562450558673</v>
       </c>
       <c r="G2">
-        <v>0.01243771121086625</v>
+        <v>0.002868091159032629</v>
       </c>
       <c r="H2">
-        <v>0.03678740335607617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.007612867549492078</v>
+      </c>
+      <c r="I2">
+        <v>-0.002583577966584219</v>
+      </c>
+      <c r="J2">
+        <v>-0.02746212287877003</v>
+      </c>
+      <c r="K2">
+        <v>-0.06062501134224524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +808,54 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1061156080794319</v>
+        <v>-0.1173003923377003</v>
       </c>
       <c r="C4">
-        <v>0.02414248047994524</v>
+        <v>-0.05431578004971121</v>
       </c>
       <c r="D4">
-        <v>-0.05545774676630414</v>
+        <v>-0.0001793157929653356</v>
       </c>
       <c r="E4">
-        <v>0.05854026153015848</v>
+        <v>0.002157992328182181</v>
       </c>
       <c r="F4">
-        <v>0.03903982950863275</v>
+        <v>-0.02012617046954782</v>
       </c>
       <c r="G4">
-        <v>0.02597689307281642</v>
+        <v>0.06870607668665582</v>
       </c>
       <c r="H4">
-        <v>-0.02108059029328143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.1332418960392671</v>
+      </c>
+      <c r="I4">
+        <v>0.08220627584185251</v>
+      </c>
+      <c r="J4">
+        <v>0.01147484539671635</v>
+      </c>
+      <c r="K4">
+        <v>0.01163025887628471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +878,404 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1298471877442158</v>
+        <v>-0.1239949188661106</v>
       </c>
       <c r="C6">
-        <v>0.02391069816580059</v>
+        <v>-0.006146915243476001</v>
       </c>
       <c r="D6">
-        <v>-0.01556080813621456</v>
+        <v>0.007614894513126049</v>
       </c>
       <c r="E6">
-        <v>0.005318960117047153</v>
+        <v>0.02979316547292555</v>
       </c>
       <c r="F6">
-        <v>-0.1773762410635389</v>
+        <v>0.01854537262303489</v>
       </c>
       <c r="G6">
-        <v>-0.1287172571755512</v>
+        <v>-0.05751682500819904</v>
       </c>
       <c r="H6">
-        <v>-0.2857612909545473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.04490644396104118</v>
+      </c>
+      <c r="I6">
+        <v>-0.003044157118170805</v>
+      </c>
+      <c r="J6">
+        <v>0.2922131888522179</v>
+      </c>
+      <c r="K6">
+        <v>0.2789671545686042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0894353252155638</v>
+        <v>-0.0805147944838638</v>
       </c>
       <c r="C7">
-        <v>0.03714419294348544</v>
+        <v>-0.05926434740684308</v>
       </c>
       <c r="D7">
-        <v>-0.04905386665041016</v>
+        <v>0.02480506854638572</v>
       </c>
       <c r="E7">
-        <v>0.01896473632546873</v>
+        <v>0.004493382167978864</v>
       </c>
       <c r="F7">
-        <v>-0.01762479145146661</v>
+        <v>-0.04510655539857147</v>
       </c>
       <c r="G7">
-        <v>0.01491509876050915</v>
+        <v>0.01257075859083476</v>
       </c>
       <c r="H7">
-        <v>0.003888196797440809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.03776904618370593</v>
+      </c>
+      <c r="I7">
+        <v>0.01389187477033936</v>
+      </c>
+      <c r="J7">
+        <v>-0.03261654562572015</v>
+      </c>
+      <c r="K7">
+        <v>-0.03114444775193484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04185862765684472</v>
+        <v>-0.05269202757726728</v>
       </c>
       <c r="C8">
-        <v>-0.03440233774553349</v>
+        <v>-0.01445987143858685</v>
       </c>
       <c r="D8">
-        <v>-0.08379969706948238</v>
+        <v>0.01713531417847147</v>
       </c>
       <c r="E8">
-        <v>0.08747608902213949</v>
+        <v>-0.002086798768113018</v>
       </c>
       <c r="F8">
-        <v>0.00657828545532185</v>
+        <v>-0.008574253032703809</v>
       </c>
       <c r="G8">
-        <v>0.1392608561596421</v>
+        <v>0.08446369390900335</v>
       </c>
       <c r="H8">
-        <v>-0.06318775083075574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.1252236737504285</v>
+      </c>
+      <c r="I8">
+        <v>0.0227198846344311</v>
+      </c>
+      <c r="J8">
+        <v>0.025961018604506</v>
+      </c>
+      <c r="K8">
+        <v>0.01402768669829011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09426023802204378</v>
+        <v>-0.08977323768918781</v>
       </c>
       <c r="C9">
-        <v>0.03761925896295967</v>
+        <v>-0.05332064785812893</v>
       </c>
       <c r="D9">
-        <v>-0.04236396424527447</v>
+        <v>0.008050177157060199</v>
       </c>
       <c r="E9">
-        <v>0.04602278947043785</v>
+        <v>-0.007943614147473332</v>
       </c>
       <c r="F9">
-        <v>0.01901210901295168</v>
+        <v>-0.02132724123945974</v>
       </c>
       <c r="G9">
-        <v>0.0759469695289703</v>
+        <v>0.0564513570370574</v>
       </c>
       <c r="H9">
-        <v>-0.03905382500837062</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.1146917880636842</v>
+      </c>
+      <c r="I9">
+        <v>0.02437551381394729</v>
+      </c>
+      <c r="J9">
+        <v>-0.007103876618583397</v>
+      </c>
+      <c r="K9">
+        <v>0.007149712807300327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03642554155939508</v>
+        <v>-0.08525387690236215</v>
       </c>
       <c r="C10">
-        <v>-0.1650238196966727</v>
+        <v>0.1792476517692502</v>
       </c>
       <c r="D10">
-        <v>-0.08562101537650708</v>
+        <v>-0.02517806996037166</v>
       </c>
       <c r="E10">
-        <v>0.01845084950901586</v>
+        <v>0.0001824256025857573</v>
       </c>
       <c r="F10">
-        <v>-0.02818302984500818</v>
+        <v>-0.06145119669742271</v>
       </c>
       <c r="G10">
-        <v>0.0009657952576604216</v>
+        <v>0.007221890581560944</v>
       </c>
       <c r="H10">
-        <v>-0.02796172804246727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.007595157706812271</v>
+      </c>
+      <c r="I10">
+        <v>0.021302373955001</v>
+      </c>
+      <c r="J10">
+        <v>0.008520576918332287</v>
+      </c>
+      <c r="K10">
+        <v>0.0279764165149772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07648465241722714</v>
+        <v>-0.08079842832898755</v>
       </c>
       <c r="C11">
-        <v>0.0618496748253354</v>
+        <v>-0.05880082839450498</v>
       </c>
       <c r="D11">
-        <v>-0.01530611193346853</v>
+        <v>0.01604554043122567</v>
       </c>
       <c r="E11">
-        <v>-0.01171067073036376</v>
+        <v>-0.02725127613508837</v>
       </c>
       <c r="F11">
-        <v>0.002685051819142107</v>
+        <v>0.002742572034684807</v>
       </c>
       <c r="G11">
-        <v>0.1630081170385169</v>
+        <v>0.05052395067954007</v>
       </c>
       <c r="H11">
-        <v>0.05064898572043618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.1214135801106034</v>
+      </c>
+      <c r="I11">
+        <v>-0.05354707248345021</v>
+      </c>
+      <c r="J11">
+        <v>-0.06769719261702939</v>
+      </c>
+      <c r="K11">
+        <v>-0.05379626977206244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07292932332230584</v>
+        <v>-0.08203337849466408</v>
       </c>
       <c r="C12">
-        <v>0.04183183771533428</v>
+        <v>-0.06673158923661761</v>
       </c>
       <c r="D12">
-        <v>-0.01526245383484109</v>
+        <v>0.02706313072506782</v>
       </c>
       <c r="E12">
-        <v>0.02755934366179559</v>
+        <v>-0.05167507922348393</v>
       </c>
       <c r="F12">
-        <v>-0.01040686095996305</v>
+        <v>-0.008894839700890333</v>
       </c>
       <c r="G12">
-        <v>0.1433448203131848</v>
+        <v>0.06508134914055379</v>
       </c>
       <c r="H12">
-        <v>0.02101458897228209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.11169900200833</v>
+      </c>
+      <c r="I12">
+        <v>-0.06601400528165897</v>
+      </c>
+      <c r="J12">
+        <v>-0.04552632779595376</v>
+      </c>
+      <c r="K12">
+        <v>-0.04728778183084005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06360119213973156</v>
+        <v>-0.04234210795129852</v>
       </c>
       <c r="C13">
-        <v>0.005399914256289088</v>
+        <v>-0.02556160434754325</v>
       </c>
       <c r="D13">
-        <v>-0.02243755645489928</v>
+        <v>0.01322246681037212</v>
       </c>
       <c r="E13">
-        <v>0.0183826914695361</v>
+        <v>0.01691974891148135</v>
       </c>
       <c r="F13">
-        <v>0.05496865034875468</v>
+        <v>-0.01940260939816389</v>
       </c>
       <c r="G13">
-        <v>0.05417978970370185</v>
+        <v>0.04415227570694975</v>
       </c>
       <c r="H13">
-        <v>-0.00277457396337521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.04910167031027498</v>
+      </c>
+      <c r="I13">
+        <v>0.01905219788322758</v>
+      </c>
+      <c r="J13">
+        <v>0.04304844352595408</v>
+      </c>
+      <c r="K13">
+        <v>0.02780611098429027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05135669588479406</v>
+        <v>-0.0390446841626676</v>
       </c>
       <c r="C14">
-        <v>0.00788931729635863</v>
+        <v>-0.0114765960560391</v>
       </c>
       <c r="D14">
-        <v>-0.05827427562751492</v>
+        <v>-0.01019179598930527</v>
       </c>
       <c r="E14">
-        <v>0.02474503698931516</v>
+        <v>-0.01663085913613698</v>
       </c>
       <c r="F14">
-        <v>0.02187430227389366</v>
+        <v>-0.00517358561215677</v>
       </c>
       <c r="G14">
-        <v>0.04771664441523155</v>
+        <v>0.04454153191047114</v>
       </c>
       <c r="H14">
-        <v>-0.1390008939409732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.04816915685152699</v>
+      </c>
+      <c r="I14">
+        <v>0.07184038084935947</v>
+      </c>
+      <c r="J14">
+        <v>-0.016726823380748</v>
+      </c>
+      <c r="K14">
+        <v>0.0662703091855663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03520115625412831</v>
+        <v>-0.02307527429208342</v>
       </c>
       <c r="C15">
-        <v>-0.01051023962373475</v>
+        <v>-0.004366113704095374</v>
       </c>
       <c r="D15">
-        <v>-0.01755795874868944</v>
+        <v>0.005891959308483417</v>
       </c>
       <c r="E15">
-        <v>0.004688100220675833</v>
+        <v>0.03361044907763867</v>
       </c>
       <c r="F15">
-        <v>0.004880231304773654</v>
+        <v>-0.01826190150248678</v>
       </c>
       <c r="G15">
-        <v>0.0219563499086255</v>
+        <v>0.01162971246893861</v>
       </c>
       <c r="H15">
-        <v>-0.05543684893472366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.007060753512608936</v>
+      </c>
+      <c r="I15">
+        <v>0.02235058520537075</v>
+      </c>
+      <c r="J15">
+        <v>0.01233904235842262</v>
+      </c>
+      <c r="K15">
+        <v>0.04543697059983724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.0802675262343352</v>
+        <v>-0.0873443037562243</v>
       </c>
       <c r="C16">
-        <v>0.07080163690747794</v>
+        <v>-0.06752400550280159</v>
       </c>
       <c r="D16">
-        <v>-0.02554791019566822</v>
+        <v>0.02047573789587155</v>
       </c>
       <c r="E16">
-        <v>0.02812046459213696</v>
+        <v>-0.02971217579912478</v>
       </c>
       <c r="F16">
-        <v>0.04409696784798493</v>
+        <v>-0.003704288673916549</v>
       </c>
       <c r="G16">
-        <v>0.1204510846523612</v>
+        <v>0.07421604839081869</v>
       </c>
       <c r="H16">
-        <v>0.05138159085720546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.1087572497648497</v>
+      </c>
+      <c r="I16">
+        <v>-0.08189140016204226</v>
+      </c>
+      <c r="J16">
+        <v>-0.09709573729524114</v>
+      </c>
+      <c r="K16">
+        <v>-0.04400598632156608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1298,19 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1333,19 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1368,264 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05273631455127353</v>
+        <v>-0.05184204029983099</v>
       </c>
       <c r="C20">
-        <v>0.02245704124519836</v>
+        <v>-0.03503341858462964</v>
       </c>
       <c r="D20">
-        <v>-0.02181695834461599</v>
+        <v>-0.0155724300102473</v>
       </c>
       <c r="E20">
-        <v>0.01755081889735209</v>
+        <v>0.01057470090410951</v>
       </c>
       <c r="F20">
-        <v>0.006851384212861105</v>
+        <v>-0.01506044334196273</v>
       </c>
       <c r="G20">
-        <v>0.1109328418920181</v>
+        <v>0.03342278353754151</v>
       </c>
       <c r="H20">
-        <v>0.001190914747367826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.05223295632677372</v>
+      </c>
+      <c r="I20">
+        <v>0.01170507850442125</v>
+      </c>
+      <c r="J20">
+        <v>-0.02288525556339284</v>
+      </c>
+      <c r="K20">
+        <v>0.03044785511570754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02635549779986707</v>
+        <v>-0.03046073826306802</v>
       </c>
       <c r="C21">
-        <v>0.04144985550523064</v>
+        <v>-0.01237506380430877</v>
       </c>
       <c r="D21">
-        <v>-0.004151179226667664</v>
+        <v>-0.03203487233615915</v>
       </c>
       <c r="E21">
-        <v>0.01663655898251271</v>
+        <v>0.004288341940868887</v>
       </c>
       <c r="F21">
-        <v>-0.07188400500154504</v>
+        <v>0.01486484325427718</v>
       </c>
       <c r="G21">
-        <v>-0.08480094738600501</v>
+        <v>0.03538993135634186</v>
       </c>
       <c r="H21">
-        <v>-0.07744695374543538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.06656951964844737</v>
+      </c>
+      <c r="I21">
+        <v>0.04367680549795975</v>
+      </c>
+      <c r="J21">
+        <v>0.04101514567948176</v>
+      </c>
+      <c r="K21">
+        <v>-0.01313753769839584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04426378853895744</v>
+        <v>-0.03653226766580429</v>
       </c>
       <c r="C22">
-        <v>0.0150346453928344</v>
+        <v>0.001829595954659099</v>
       </c>
       <c r="D22">
-        <v>0.0002586984924373765</v>
+        <v>0.07771295347393883</v>
       </c>
       <c r="E22">
-        <v>0.5556462247943326</v>
+        <v>0.6094546756741371</v>
       </c>
       <c r="F22">
-        <v>0.1342742670351834</v>
+        <v>-0.2070037488082931</v>
       </c>
       <c r="G22">
-        <v>-0.3172350312440688</v>
+        <v>0.1430982079702909</v>
       </c>
       <c r="H22">
-        <v>0.1196455777024898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.115437527249378</v>
+      </c>
+      <c r="I22">
+        <v>-0.08340915749902274</v>
+      </c>
+      <c r="J22">
+        <v>-0.0253709470932654</v>
+      </c>
+      <c r="K22">
+        <v>-0.04732765651548855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04437340178299957</v>
+        <v>-0.03673565552946475</v>
       </c>
       <c r="C23">
-        <v>0.01550165237322899</v>
+        <v>0.001388183229117137</v>
       </c>
       <c r="D23">
-        <v>-0.001445466297570329</v>
+        <v>0.07881295170525582</v>
       </c>
       <c r="E23">
-        <v>0.5545804277467404</v>
+        <v>0.6115839953580918</v>
       </c>
       <c r="F23">
-        <v>0.1347757311977906</v>
+        <v>-0.2075105398153538</v>
       </c>
       <c r="G23">
-        <v>-0.3180945424769794</v>
+        <v>0.1438399105157036</v>
       </c>
       <c r="H23">
-        <v>0.1188830724380954</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1116436226359293</v>
+      </c>
+      <c r="I23">
+        <v>-0.08347784016212295</v>
+      </c>
+      <c r="J23">
+        <v>-0.0265080155858909</v>
+      </c>
+      <c r="K23">
+        <v>-0.04316761903064908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08453465251440537</v>
+        <v>-0.08903046550863392</v>
       </c>
       <c r="C24">
-        <v>0.05050920237330042</v>
+        <v>-0.05990556942933827</v>
       </c>
       <c r="D24">
-        <v>-0.0324902918137767</v>
+        <v>0.007157803605980748</v>
       </c>
       <c r="E24">
-        <v>0.02847051580302497</v>
+        <v>-0.0256410937314638</v>
       </c>
       <c r="F24">
-        <v>0.0005227380941346727</v>
+        <v>-0.009986923847330039</v>
       </c>
       <c r="G24">
-        <v>0.1235925384352617</v>
+        <v>0.05908649744740782</v>
       </c>
       <c r="H24">
-        <v>0.0224073278806376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.1088547177282188</v>
+      </c>
+      <c r="I24">
+        <v>-0.09540557046081484</v>
+      </c>
+      <c r="J24">
+        <v>-0.086971974017944</v>
+      </c>
+      <c r="K24">
+        <v>-0.03733091204714537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07639090035333174</v>
+        <v>-0.09038060594171062</v>
       </c>
       <c r="C25">
-        <v>0.02254644209967634</v>
+        <v>-0.04207250828913901</v>
       </c>
       <c r="D25">
-        <v>-0.0312075226755796</v>
+        <v>0.0200435673535888</v>
       </c>
       <c r="E25">
-        <v>0.02463478467989722</v>
+        <v>-0.0565415447098382</v>
       </c>
       <c r="F25">
-        <v>-0.008136530309909702</v>
+        <v>-0.01049255533807462</v>
       </c>
       <c r="G25">
-        <v>0.1154449058701973</v>
+        <v>0.07473124311132465</v>
       </c>
       <c r="H25">
-        <v>0.01473345422829848</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09353287276090994</v>
+      </c>
+      <c r="I25">
+        <v>-0.04523810299254021</v>
+      </c>
+      <c r="J25">
+        <v>-0.07027649242293139</v>
+      </c>
+      <c r="K25">
+        <v>-0.03695742003132043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05048153735453885</v>
+        <v>-0.04107171065802515</v>
       </c>
       <c r="C26">
-        <v>0.02829391635195485</v>
+        <v>0.006517184479394902</v>
       </c>
       <c r="D26">
-        <v>-0.03558588171346701</v>
+        <v>-0.01794556660256917</v>
       </c>
       <c r="E26">
-        <v>0.00986000327062213</v>
+        <v>0.01514643274053021</v>
       </c>
       <c r="F26">
-        <v>0.020752389934869</v>
+        <v>0.01427233074751226</v>
       </c>
       <c r="G26">
-        <v>0.06188774570127537</v>
+        <v>0.03566030902223694</v>
       </c>
       <c r="H26">
-        <v>-0.06783630721306674</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.03633231052735938</v>
+      </c>
+      <c r="I26">
+        <v>0.0237152668376461</v>
+      </c>
+      <c r="J26">
+        <v>-0.0172086727537581</v>
+      </c>
+      <c r="K26">
+        <v>0.06921399183136401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1648,334 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06011458323791469</v>
+        <v>-0.09651103893692116</v>
       </c>
       <c r="C28">
-        <v>-0.3029808001140256</v>
+        <v>0.3183708799215995</v>
       </c>
       <c r="D28">
-        <v>-0.03475446711104094</v>
+        <v>0.0182773603480393</v>
       </c>
       <c r="E28">
-        <v>-0.01965249023779036</v>
+        <v>-0.02161135785878903</v>
       </c>
       <c r="F28">
-        <v>-0.05134616002729865</v>
+        <v>-0.006188873763837851</v>
       </c>
       <c r="G28">
-        <v>-0.01946300732421322</v>
+        <v>0.02566338508382656</v>
       </c>
       <c r="H28">
-        <v>0.06280969237910984</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.02144510759737285</v>
+      </c>
+      <c r="I28">
+        <v>-0.0112896638957933</v>
+      </c>
+      <c r="J28">
+        <v>0.02037890201916934</v>
+      </c>
+      <c r="K28">
+        <v>-0.01520631878907742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05896323410996956</v>
+        <v>-0.03844505825403613</v>
       </c>
       <c r="C29">
-        <v>0.003506111256226829</v>
+        <v>-0.008923151044895418</v>
       </c>
       <c r="D29">
-        <v>-0.03471643930243013</v>
+        <v>0.0005911339336121803</v>
       </c>
       <c r="E29">
-        <v>0.04035839120949727</v>
+        <v>-0.02012009176882364</v>
       </c>
       <c r="F29">
-        <v>0.0325368171106722</v>
+        <v>-0.02130428788635441</v>
       </c>
       <c r="G29">
-        <v>0.04273562206641139</v>
+        <v>0.07823272042633027</v>
       </c>
       <c r="H29">
-        <v>-0.08626102962212741</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.04493732571606864</v>
+      </c>
+      <c r="I29">
+        <v>0.03133560522399687</v>
+      </c>
+      <c r="J29">
+        <v>-0.02946130070037895</v>
+      </c>
+      <c r="K29">
+        <v>0.07568023713961768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1143945242774041</v>
+        <v>-0.1087112743163291</v>
       </c>
       <c r="C30">
-        <v>-0.02505474036494891</v>
+        <v>-0.0739367357916618</v>
       </c>
       <c r="D30">
-        <v>-0.075113083238821</v>
+        <v>0.04829749225448561</v>
       </c>
       <c r="E30">
-        <v>0.2133355536624097</v>
+        <v>-0.01023793816653194</v>
       </c>
       <c r="F30">
-        <v>-0.087129487257227</v>
+        <v>0.01845244785604815</v>
       </c>
       <c r="G30">
-        <v>0.1536690800591264</v>
+        <v>0.1690642304654407</v>
       </c>
       <c r="H30">
-        <v>0.02081397490593071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1607249089948467</v>
+      </c>
+      <c r="I30">
+        <v>-0.1652329192619789</v>
+      </c>
+      <c r="J30">
+        <v>0.1854847848463911</v>
+      </c>
+      <c r="K30">
+        <v>-0.1173287437292672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05731685119176889</v>
+        <v>-0.03758120480608761</v>
       </c>
       <c r="C31">
-        <v>0.01963316540226122</v>
+        <v>-0.02634389184667472</v>
       </c>
       <c r="D31">
-        <v>0.00930159496539389</v>
+        <v>0.0007774078834430825</v>
       </c>
       <c r="E31">
-        <v>0.007118270168965272</v>
+        <v>0.004745852464610858</v>
       </c>
       <c r="F31">
-        <v>0.04168474636971675</v>
+        <v>0.0006573702508758718</v>
       </c>
       <c r="G31">
-        <v>0.009664974943464306</v>
+        <v>0.009932055520202213</v>
       </c>
       <c r="H31">
-        <v>-0.01992779116789713</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.02188206624684095</v>
+      </c>
+      <c r="I31">
+        <v>0.01932654796166195</v>
+      </c>
+      <c r="J31">
+        <v>-0.04581048565104024</v>
+      </c>
+      <c r="K31">
+        <v>0.05990784892741336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03768587673266845</v>
+        <v>-0.05476575097628961</v>
       </c>
       <c r="C32">
-        <v>-0.02269795252001825</v>
+        <v>-0.004965672763012585</v>
       </c>
       <c r="D32">
-        <v>-0.006284009435980471</v>
+        <v>-0.01411305739065601</v>
       </c>
       <c r="E32">
-        <v>0.08943572136790236</v>
+        <v>-0.02939978108781368</v>
       </c>
       <c r="F32">
-        <v>0.1285788237173175</v>
+        <v>0.05214455985076186</v>
       </c>
       <c r="G32">
-        <v>0.04789017123348299</v>
+        <v>0.02374007521083815</v>
       </c>
       <c r="H32">
-        <v>-0.004628001563831187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.04295101338691454</v>
+      </c>
+      <c r="I32">
+        <v>-0.006100667160663143</v>
+      </c>
+      <c r="J32">
+        <v>0.004441718604230021</v>
+      </c>
+      <c r="K32">
+        <v>0.002601875387347839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1116399459952539</v>
+        <v>-0.1040413380396268</v>
       </c>
       <c r="C33">
-        <v>0.01454203191879425</v>
+        <v>-0.05260112524842086</v>
       </c>
       <c r="D33">
-        <v>0.006629468642022905</v>
+        <v>0.06862810902051096</v>
       </c>
       <c r="E33">
-        <v>0.01183095777788373</v>
+        <v>-0.02812661971697937</v>
       </c>
       <c r="F33">
-        <v>0.03044197247284868</v>
+        <v>-0.003373318486325644</v>
       </c>
       <c r="G33">
-        <v>0.07085588097311565</v>
+        <v>0.0248044671293252</v>
       </c>
       <c r="H33">
-        <v>-0.063786044229606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.05146375692245285</v>
+      </c>
+      <c r="I33">
+        <v>-0.002245780242990077</v>
+      </c>
+      <c r="J33">
+        <v>-0.030155491154765</v>
+      </c>
+      <c r="K33">
+        <v>-0.002019356534718217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06720898209534532</v>
+        <v>-0.07450666850275725</v>
       </c>
       <c r="C34">
-        <v>0.04514927508801238</v>
+        <v>-0.0524208789213554</v>
       </c>
       <c r="D34">
-        <v>-0.01764782855836763</v>
+        <v>0.01518761366533633</v>
       </c>
       <c r="E34">
-        <v>0.008507412812148216</v>
+        <v>-0.02939563704890025</v>
       </c>
       <c r="F34">
-        <v>0.02853531236429695</v>
+        <v>-0.003665088144707853</v>
       </c>
       <c r="G34">
-        <v>0.09401781129610343</v>
+        <v>0.06687632890407391</v>
       </c>
       <c r="H34">
-        <v>0.01706985886904569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1044766601306238</v>
+      </c>
+      <c r="I34">
+        <v>-0.0491802519911291</v>
+      </c>
+      <c r="J34">
+        <v>-0.07303900244665526</v>
+      </c>
+      <c r="K34">
+        <v>-0.03928376738661715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04327538397293459</v>
+        <v>-0.01974614052562825</v>
       </c>
       <c r="C35">
-        <v>0.01044818019966666</v>
+        <v>-0.01215430406437066</v>
       </c>
       <c r="D35">
-        <v>0.01039545551421027</v>
+        <v>0.003026549148992147</v>
       </c>
       <c r="E35">
-        <v>0.008054632717944068</v>
+        <v>-0.006479380011309452</v>
       </c>
       <c r="F35">
-        <v>-0.04279149891245228</v>
+        <v>-0.005562792942616669</v>
       </c>
       <c r="G35">
-        <v>0.0434319020643071</v>
+        <v>0.05278981305653387</v>
       </c>
       <c r="H35">
-        <v>0.0150230445187927</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.02152159217198561</v>
+      </c>
+      <c r="I35">
+        <v>0.02964312230077334</v>
+      </c>
+      <c r="J35">
+        <v>-0.01447039162822167</v>
+      </c>
+      <c r="K35">
+        <v>-0.002419906758831619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03800175579092193</v>
+        <v>-0.03194727322406399</v>
       </c>
       <c r="C36">
-        <v>0.003581367572569682</v>
+        <v>-0.00711350992157271</v>
       </c>
       <c r="D36">
-        <v>-0.02048716491059795</v>
+        <v>0.004115929188827406</v>
       </c>
       <c r="E36">
-        <v>0.03915123047100423</v>
+        <v>0.009674023073640235</v>
       </c>
       <c r="F36">
-        <v>0.004668691126237141</v>
+        <v>0.006283933314827184</v>
       </c>
       <c r="G36">
-        <v>0.05665856864091192</v>
+        <v>0.03690145702723837</v>
       </c>
       <c r="H36">
-        <v>-0.04908891604374509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.0566165736192028</v>
+      </c>
+      <c r="I36">
+        <v>-0.001833552913770554</v>
+      </c>
+      <c r="J36">
+        <v>-0.02649263570204676</v>
+      </c>
+      <c r="K36">
+        <v>0.0480122094239985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1998,159 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05670294329210603</v>
+        <v>-0.0213145341030862</v>
       </c>
       <c r="C38">
-        <v>0.01728284649202645</v>
+        <v>-0.01647308493262874</v>
       </c>
       <c r="D38">
-        <v>-0.006818626643280622</v>
+        <v>0.0112951197974039</v>
       </c>
       <c r="E38">
-        <v>0.003224879620260948</v>
+        <v>0.01603272514581056</v>
       </c>
       <c r="F38">
-        <v>0.02397110431821178</v>
+        <v>-0.01720224551536251</v>
       </c>
       <c r="G38">
-        <v>0.05667743735958471</v>
+        <v>-0.01092558281440971</v>
       </c>
       <c r="H38">
-        <v>0.009916572584331053</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.04449980973271556</v>
+      </c>
+      <c r="I38">
+        <v>0.008155109558725235</v>
+      </c>
+      <c r="J38">
+        <v>0.02206823647332406</v>
+      </c>
+      <c r="K38">
+        <v>0.04138417045068171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1082868424061295</v>
+        <v>-0.1252517234215664</v>
       </c>
       <c r="C39">
-        <v>0.03887445662463478</v>
+        <v>-0.08616288687053533</v>
       </c>
       <c r="D39">
-        <v>-0.0200236486552263</v>
+        <v>0.0415031396844644</v>
       </c>
       <c r="E39">
-        <v>0.0686863475877689</v>
+        <v>-0.1066781448586749</v>
       </c>
       <c r="F39">
-        <v>0.004486944167264017</v>
+        <v>0.004613852710868554</v>
       </c>
       <c r="G39">
-        <v>0.1485975918142522</v>
+        <v>0.1059769892887272</v>
       </c>
       <c r="H39">
-        <v>0.1051249662757727</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.08532913525894976</v>
+      </c>
+      <c r="I39">
+        <v>-0.08880592190193821</v>
+      </c>
+      <c r="J39">
+        <v>-0.1050843340569636</v>
+      </c>
+      <c r="K39">
+        <v>-0.1318584457103517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05045099330201053</v>
+        <v>-0.01857854212903203</v>
       </c>
       <c r="C40">
-        <v>0.02705543671536734</v>
+        <v>-0.03069367640451412</v>
       </c>
       <c r="D40">
-        <v>0.009389441414646447</v>
+        <v>-0.006235992524996801</v>
       </c>
       <c r="E40">
-        <v>0.1052005802500391</v>
+        <v>0.06338869405500916</v>
       </c>
       <c r="F40">
-        <v>-0.04030910409663103</v>
+        <v>-0.0230266171616397</v>
       </c>
       <c r="G40">
-        <v>0.2527215235967325</v>
+        <v>0.06671417656879211</v>
       </c>
       <c r="H40">
-        <v>0.05226404339900168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.09801739700127075</v>
+      </c>
+      <c r="I40">
+        <v>0.01753914642479206</v>
+      </c>
+      <c r="J40">
+        <v>0.07772174721628178</v>
+      </c>
+      <c r="K40">
+        <v>0.01189648111740148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04750686089093945</v>
+        <v>-0.03005592647722386</v>
       </c>
       <c r="C41">
-        <v>0.02967429556144721</v>
+        <v>-0.01134723249158175</v>
       </c>
       <c r="D41">
-        <v>-0.004304316925071652</v>
+        <v>-0.01137615249977018</v>
       </c>
       <c r="E41">
-        <v>-0.01715603084909228</v>
+        <v>-0.01140283500400729</v>
       </c>
       <c r="F41">
-        <v>0.02876581696241227</v>
+        <v>-0.007613002726431753</v>
       </c>
       <c r="G41">
-        <v>0.06221470638266308</v>
+        <v>0.007588708292504518</v>
       </c>
       <c r="H41">
-        <v>0.02701996867452316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.01325505715041916</v>
+      </c>
+      <c r="I41">
+        <v>0.0133886724957508</v>
+      </c>
+      <c r="J41">
+        <v>-0.01654357764723016</v>
+      </c>
+      <c r="K41">
+        <v>0.04190781529565107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2173,89 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07340069032402699</v>
+        <v>-0.04617555923374275</v>
       </c>
       <c r="C43">
-        <v>0.02994359766922054</v>
+        <v>-0.01485489884216673</v>
       </c>
       <c r="D43">
-        <v>-0.02170719665473082</v>
+        <v>0.01205197255213968</v>
       </c>
       <c r="E43">
-        <v>0.02106954805111162</v>
+        <v>0.003553269621791375</v>
       </c>
       <c r="F43">
-        <v>0.02800955399462369</v>
+        <v>-0.01011099903018185</v>
       </c>
       <c r="G43">
-        <v>0.006155076991173565</v>
+        <v>0.03031349023603594</v>
       </c>
       <c r="H43">
-        <v>0.02119315159910021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.00186117377602144</v>
+      </c>
+      <c r="I43">
+        <v>0.02100343434344519</v>
+      </c>
+      <c r="J43">
+        <v>-0.02203417194235292</v>
+      </c>
+      <c r="K43">
+        <v>0.03648497862637141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07709881532985381</v>
+        <v>-0.1177312360686967</v>
       </c>
       <c r="C44">
-        <v>0.0149513230319571</v>
+        <v>-0.09886560094914679</v>
       </c>
       <c r="D44">
-        <v>-0.1078135395811536</v>
+        <v>0.04200448511242919</v>
       </c>
       <c r="E44">
-        <v>0.04095424358305031</v>
+        <v>0.05220949151459263</v>
       </c>
       <c r="F44">
-        <v>0.05488629214140776</v>
+        <v>-0.1092343614331132</v>
       </c>
       <c r="G44">
-        <v>0.08906242766667427</v>
+        <v>0.2070440658948821</v>
       </c>
       <c r="H44">
-        <v>0.007029878385871167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.1502306161634261</v>
+      </c>
+      <c r="I44">
+        <v>-0.0708085865064715</v>
+      </c>
+      <c r="J44">
+        <v>0.1005884968716677</v>
+      </c>
+      <c r="K44">
+        <v>-0.05790171825432786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2278,404 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.05031641374816253</v>
+        <v>-0.02719854355772134</v>
       </c>
       <c r="C46">
-        <v>0.03992318175687051</v>
+        <v>-0.005550995009636614</v>
       </c>
       <c r="D46">
-        <v>-0.03465432320665003</v>
+        <v>0.008599291223256051</v>
       </c>
       <c r="E46">
-        <v>0.0456299833238917</v>
+        <v>0.02840274800457809</v>
       </c>
       <c r="F46">
-        <v>0.02610520527954309</v>
+        <v>-0.03448657837336484</v>
       </c>
       <c r="G46">
-        <v>0.02686871640025257</v>
+        <v>0.04358807719579293</v>
       </c>
       <c r="H46">
-        <v>-0.07780874511424449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.02757706184876637</v>
+      </c>
+      <c r="I46">
+        <v>0.0190277546636179</v>
+      </c>
+      <c r="J46">
+        <v>-0.03661620165915371</v>
+      </c>
+      <c r="K46">
+        <v>0.06195021808717692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.0494569750021087</v>
+        <v>-0.04112786669913051</v>
       </c>
       <c r="C47">
-        <v>0.0008520349198888904</v>
+        <v>-0.007644401917298675</v>
       </c>
       <c r="D47">
-        <v>-0.004178005947983657</v>
+        <v>-0.002344254098241106</v>
       </c>
       <c r="E47">
-        <v>0.06359917969336856</v>
+        <v>0.01391012790121734</v>
       </c>
       <c r="F47">
-        <v>0.007872502705742352</v>
+        <v>-0.000840291130281677</v>
       </c>
       <c r="G47">
-        <v>-0.008262489841026951</v>
+        <v>0.04505935254948523</v>
       </c>
       <c r="H47">
-        <v>-0.02760878370353418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.01853877403765932</v>
+      </c>
+      <c r="I47">
+        <v>0.0521762461724698</v>
+      </c>
+      <c r="J47">
+        <v>0.002987773263540988</v>
+      </c>
+      <c r="K47">
+        <v>0.03989787469683084</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04421197688145856</v>
+        <v>-0.03772643851355163</v>
       </c>
       <c r="C48">
-        <v>3.597170585561969e-05</v>
+        <v>-0.000142321232342066</v>
       </c>
       <c r="D48">
-        <v>0.004332114064978178</v>
+        <v>0.01004581052580742</v>
       </c>
       <c r="E48">
-        <v>0.04047585296310843</v>
+        <v>0.0007267252323019235</v>
       </c>
       <c r="F48">
-        <v>0.005054455192428984</v>
+        <v>0.00352365458195867</v>
       </c>
       <c r="G48">
-        <v>0.04373081400983244</v>
+        <v>0.04629282892757609</v>
       </c>
       <c r="H48">
-        <v>-0.01818965773838023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.04342773667425933</v>
+      </c>
+      <c r="I48">
+        <v>0.02993450360125816</v>
+      </c>
+      <c r="J48">
+        <v>-0.01097572489950914</v>
+      </c>
+      <c r="K48">
+        <v>0.03057448048300288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2362187299326217</v>
+        <v>-0.2311266132309382</v>
       </c>
       <c r="C49">
-        <v>0.06998740791432859</v>
+        <v>-0.03783541982149678</v>
       </c>
       <c r="D49">
-        <v>-0.01467855727586657</v>
+        <v>-0.05504137741347741</v>
       </c>
       <c r="E49">
-        <v>-0.09628510112185366</v>
+        <v>-0.03617146667238146</v>
       </c>
       <c r="F49">
-        <v>-0.1191285149668094</v>
+        <v>-0.0388397189071479</v>
       </c>
       <c r="G49">
-        <v>-0.1043896383959513</v>
+        <v>-0.2102306671555661</v>
       </c>
       <c r="H49">
-        <v>0.1064918498609888</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1453239067490213</v>
+      </c>
+      <c r="I49">
+        <v>-0.2158625125540563</v>
+      </c>
+      <c r="J49">
+        <v>0.05361048485458911</v>
+      </c>
+      <c r="K49">
+        <v>-0.1361493037233386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05497808847632279</v>
+        <v>-0.04325278034607199</v>
       </c>
       <c r="C50">
-        <v>0.01512673416305178</v>
+        <v>-0.01979621302391281</v>
       </c>
       <c r="D50">
-        <v>-0.0007821654613825779</v>
+        <v>-0.009195069494085047</v>
       </c>
       <c r="E50">
-        <v>0.01777864577908465</v>
+        <v>0.001594129374294168</v>
       </c>
       <c r="F50">
-        <v>0.05373973731728241</v>
+        <v>0.000285657565288085</v>
       </c>
       <c r="G50">
-        <v>-0.0009441825596977028</v>
+        <v>0.03498585091451405</v>
       </c>
       <c r="H50">
-        <v>-0.05449626387814887</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03158774162658847</v>
+      </c>
+      <c r="I50">
+        <v>0.004211386723911079</v>
+      </c>
+      <c r="J50">
+        <v>-0.02635865210526436</v>
+      </c>
+      <c r="K50">
+        <v>0.04787905124666279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03769110647272087</v>
+        <v>-0.01879370014716085</v>
       </c>
       <c r="C51">
-        <v>0.009182520680550048</v>
+        <v>0.004541991268688249</v>
       </c>
       <c r="D51">
-        <v>-0.0163143228814745</v>
+        <v>0.0132852016274311</v>
       </c>
       <c r="E51">
-        <v>-0.009009561441686591</v>
+        <v>0.001563776535958812</v>
       </c>
       <c r="F51">
-        <v>0.01638145708925613</v>
+        <v>-0.02093839077114555</v>
       </c>
       <c r="G51">
-        <v>-0.01192827545395278</v>
+        <v>-0.02678927353306691</v>
       </c>
       <c r="H51">
-        <v>0.03399501403228296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.00574324772844988</v>
+      </c>
+      <c r="I51">
+        <v>-0.006974179104771884</v>
+      </c>
+      <c r="J51">
+        <v>0.006990666974754541</v>
+      </c>
+      <c r="K51">
+        <v>-0.0170693734269744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07668539437264645</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.04429756135381276</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.00104993348359577</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02325543399430051</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.005079439447231934</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.07264955527678511</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.04554944155171492</v>
+      </c>
+      <c r="I52">
+        <v>0.07448292169755781</v>
+      </c>
+      <c r="J52">
+        <v>-0.08559578504215973</v>
+      </c>
+      <c r="K52">
+        <v>-0.01156032267100264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1618359642062987</v>
+        <v>-0.1619633863016753</v>
       </c>
       <c r="C53">
-        <v>-0.007914780702077186</v>
+        <v>-0.02846574650833067</v>
       </c>
       <c r="D53">
-        <v>0.009888583852867543</v>
+        <v>0.01126913738045714</v>
       </c>
       <c r="E53">
-        <v>-0.06917277886364538</v>
+        <v>-0.009469769256072931</v>
       </c>
       <c r="F53">
-        <v>0.2257191675521182</v>
+        <v>-0.01524951384605115</v>
       </c>
       <c r="G53">
-        <v>-0.04815372684395951</v>
+        <v>0.03227892372810033</v>
       </c>
       <c r="H53">
-        <v>-0.04140281298822745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1190536171859523</v>
+      </c>
+      <c r="I53">
+        <v>0.119769863888087</v>
+      </c>
+      <c r="J53">
+        <v>-0.1549375610202247</v>
+      </c>
+      <c r="K53">
+        <v>0.1282175342637658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05490154390775468</v>
+        <v>-0.05225492413312215</v>
       </c>
       <c r="C54">
-        <v>0.007948880559009251</v>
+        <v>-0.01986828167490096</v>
       </c>
       <c r="D54">
-        <v>-0.01956798979190954</v>
+        <v>-0.000916561440485439</v>
       </c>
       <c r="E54">
-        <v>0.03860068334271601</v>
+        <v>0.0232590927069919</v>
       </c>
       <c r="F54">
-        <v>0.02010919432787008</v>
+        <v>-0.00610369678828984</v>
       </c>
       <c r="G54">
-        <v>0.06801650072312632</v>
+        <v>0.04958115567286406</v>
       </c>
       <c r="H54">
-        <v>-0.09547594344434085</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.1210929753570434</v>
+      </c>
+      <c r="I54">
+        <v>0.07634741794041894</v>
+      </c>
+      <c r="J54">
+        <v>0.004730648383619291</v>
+      </c>
+      <c r="K54">
+        <v>0.1105377077815483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.0963425268347456</v>
+        <v>-0.08791686084490699</v>
       </c>
       <c r="C55">
-        <v>0.006887560619315722</v>
+        <v>-0.02403398127181106</v>
       </c>
       <c r="D55">
-        <v>-0.005160125975307125</v>
+        <v>0.05141537112953248</v>
       </c>
       <c r="E55">
-        <v>-0.0149657918834649</v>
+        <v>-0.02911212983672242</v>
       </c>
       <c r="F55">
-        <v>0.1710270190676</v>
+        <v>-0.01028883957727981</v>
       </c>
       <c r="G55">
-        <v>0.004580064044063852</v>
+        <v>0.01980442571880838</v>
       </c>
       <c r="H55">
-        <v>-0.06848257426346181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.02819767099172298</v>
+      </c>
+      <c r="I55">
+        <v>0.07743094049076775</v>
+      </c>
+      <c r="J55">
+        <v>-0.1180981576406715</v>
+      </c>
+      <c r="K55">
+        <v>0.08682675810963258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1626245812760287</v>
+        <v>-0.1598828734785812</v>
       </c>
       <c r="C56">
-        <v>-0.007131716107375207</v>
+        <v>-0.04071309912553413</v>
       </c>
       <c r="D56">
-        <v>0.01848959319193912</v>
+        <v>0.01996542377351594</v>
       </c>
       <c r="E56">
-        <v>-0.06593133478175994</v>
+        <v>-0.03044016029264276</v>
       </c>
       <c r="F56">
-        <v>0.2309911902864977</v>
+        <v>-0.02411196469947313</v>
       </c>
       <c r="G56">
-        <v>-0.04456336875735954</v>
+        <v>0.04825377446894649</v>
       </c>
       <c r="H56">
-        <v>-0.05822471291448504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.07151461107038083</v>
+      </c>
+      <c r="I56">
+        <v>0.05120198003422759</v>
+      </c>
+      <c r="J56">
+        <v>-0.1622613595065353</v>
+      </c>
+      <c r="K56">
+        <v>0.1366753461348457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2698,1559 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.01908126554899062</v>
+        <v>-0.03932113785903935</v>
       </c>
       <c r="C58">
-        <v>0.07694810979735676</v>
+        <v>-0.02125837978593271</v>
       </c>
       <c r="D58">
-        <v>-0.006352590163736006</v>
+        <v>0.006064342958891512</v>
       </c>
       <c r="E58">
-        <v>0.2506041746377907</v>
+        <v>0.08096519771328684</v>
       </c>
       <c r="F58">
-        <v>-0.3496216495083626</v>
+        <v>-0.01699232673461983</v>
       </c>
       <c r="G58">
-        <v>0.08536383352813706</v>
+        <v>0.1113352868060382</v>
       </c>
       <c r="H58">
-        <v>0.09628158646284452</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.009086847899554376</v>
+      </c>
+      <c r="I58">
+        <v>0.06229241024022115</v>
+      </c>
+      <c r="J58">
+        <v>0.08285552647854125</v>
+      </c>
+      <c r="K58">
+        <v>-0.0800877612271432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1500375055406199</v>
+        <v>-0.1731163830513343</v>
       </c>
       <c r="C59">
-        <v>-0.3882967621118388</v>
+        <v>0.2949195649797835</v>
       </c>
       <c r="D59">
-        <v>-0.05814134301959886</v>
+        <v>0.0370139202774964</v>
       </c>
       <c r="E59">
-        <v>-0.06915235434788844</v>
+        <v>-0.06266050880535827</v>
       </c>
       <c r="F59">
-        <v>0.03010017019887989</v>
+        <v>-0.02775597567174682</v>
       </c>
       <c r="G59">
-        <v>0.03778276943921179</v>
+        <v>-0.02099697457600651</v>
       </c>
       <c r="H59">
-        <v>0.04035188034960577</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.04451125639058125</v>
+      </c>
+      <c r="I59">
+        <v>-0.01016851078549664</v>
+      </c>
+      <c r="J59">
+        <v>-0.06929786921228201</v>
+      </c>
+      <c r="K59">
+        <v>-0.01128744615342029</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2729150295236145</v>
+        <v>-0.2783323614722484</v>
       </c>
       <c r="C60">
-        <v>0.05484834622500915</v>
+        <v>-0.1374980097474455</v>
       </c>
       <c r="D60">
-        <v>-0.04215483915662049</v>
+        <v>-0.04328265445631137</v>
       </c>
       <c r="E60">
-        <v>-0.07381009729370624</v>
+        <v>-0.07476935824150041</v>
       </c>
       <c r="F60">
-        <v>-0.08017484779955052</v>
+        <v>-0.1025355460356663</v>
       </c>
       <c r="G60">
-        <v>-0.1672730547295904</v>
+        <v>-0.05451292143993188</v>
       </c>
       <c r="H60">
-        <v>0.05448026870992119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1840961748859651</v>
+      </c>
+      <c r="I60">
+        <v>-0.2308737489892854</v>
+      </c>
+      <c r="J60">
+        <v>0.1813874701185223</v>
+      </c>
+      <c r="K60">
+        <v>-0.06237699143381051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09558073088699671</v>
+        <v>-0.111168168302808</v>
       </c>
       <c r="C61">
-        <v>0.02068588732923839</v>
+        <v>-0.05607218196401884</v>
       </c>
       <c r="D61">
-        <v>-0.009109449092388172</v>
+        <v>0.03166741508325863</v>
       </c>
       <c r="E61">
-        <v>0.02183393231255182</v>
+        <v>-0.07249007408591213</v>
       </c>
       <c r="F61">
-        <v>0.02533587506894034</v>
+        <v>-0.01781568970507199</v>
       </c>
       <c r="G61">
-        <v>0.0656365849097951</v>
+        <v>0.1058464047361245</v>
       </c>
       <c r="H61">
-        <v>0.04585004247122865</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1000560879165333</v>
+      </c>
+      <c r="I61">
+        <v>-0.005910449900335021</v>
+      </c>
+      <c r="J61">
+        <v>-0.09149687483299641</v>
+      </c>
+      <c r="K61">
+        <v>-0.07851609006391252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1457744292795216</v>
+        <v>-0.1554621865736706</v>
       </c>
       <c r="C62">
-        <v>0.01624365542386185</v>
+        <v>-0.03848281369081452</v>
       </c>
       <c r="D62">
-        <v>0.03595432582318303</v>
+        <v>0.02708731563537521</v>
       </c>
       <c r="E62">
-        <v>-0.1232875125553787</v>
+        <v>-0.03364356374255929</v>
       </c>
       <c r="F62">
-        <v>0.1969279672062954</v>
+        <v>-0.01246833731841451</v>
       </c>
       <c r="G62">
-        <v>-0.01186739256214752</v>
+        <v>0.03374218270411507</v>
       </c>
       <c r="H62">
-        <v>-0.06484793582963599</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.09411873554479289</v>
+      </c>
+      <c r="I62">
+        <v>0.07245165719313089</v>
+      </c>
+      <c r="J62">
+        <v>-0.1262028908648107</v>
+      </c>
+      <c r="K62">
+        <v>0.1340963397807468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04281959741881004</v>
+        <v>-0.03848926899303881</v>
       </c>
       <c r="C63">
-        <v>0.01957005494057209</v>
+        <v>-0.0009597153255268946</v>
       </c>
       <c r="D63">
-        <v>0.003749183082838127</v>
+        <v>0.009802934994231648</v>
       </c>
       <c r="E63">
-        <v>0.0134627143803262</v>
+        <v>0.005937605890355788</v>
       </c>
       <c r="F63">
-        <v>0.01717035243653924</v>
+        <v>0.02894590954557707</v>
       </c>
       <c r="G63">
-        <v>0.04018171450157706</v>
+        <v>0.02456989018977695</v>
       </c>
       <c r="H63">
-        <v>-0.09873090186647801</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.05662756184448673</v>
+      </c>
+      <c r="I63">
+        <v>0.003457589024308403</v>
+      </c>
+      <c r="J63">
+        <v>-0.032027085595851</v>
+      </c>
+      <c r="K63">
+        <v>0.04461202452772409</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1096293436295974</v>
+        <v>-0.1004045532465609</v>
       </c>
       <c r="C64">
-        <v>0.0139928373066561</v>
+        <v>-0.02435389415161081</v>
       </c>
       <c r="D64">
-        <v>-0.04041499333384325</v>
+        <v>-0.004185631731276164</v>
       </c>
       <c r="E64">
-        <v>0.04297463098638114</v>
+        <v>-0.007066416052776042</v>
       </c>
       <c r="F64">
-        <v>-0.01450290861433746</v>
+        <v>-0.04962968294800326</v>
       </c>
       <c r="G64">
-        <v>0.05266620166968429</v>
+        <v>0.0463483072202519</v>
       </c>
       <c r="H64">
-        <v>0.002523640656062162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.05842689459676977</v>
+      </c>
+      <c r="I64">
+        <v>-0.05320133123687466</v>
+      </c>
+      <c r="J64">
+        <v>0.03495304915980724</v>
+      </c>
+      <c r="K64">
+        <v>0.003644697158951406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1163077020101601</v>
+        <v>-0.1154827351596859</v>
       </c>
       <c r="C65">
-        <v>0.02565431493662111</v>
+        <v>-0.003256846283316178</v>
       </c>
       <c r="D65">
-        <v>-0.01257177584188682</v>
+        <v>-0.0001897576723127896</v>
       </c>
       <c r="E65">
-        <v>0.05871964049140724</v>
+        <v>0.0117776655259589</v>
       </c>
       <c r="F65">
-        <v>-0.2958159992492494</v>
+        <v>0.04528071131968445</v>
       </c>
       <c r="G65">
-        <v>-0.1863873420500378</v>
+        <v>-0.03105077534387159</v>
       </c>
       <c r="H65">
-        <v>-0.6548381859756377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.01930478564669948</v>
+      </c>
+      <c r="I65">
+        <v>-0.02634063809083618</v>
+      </c>
+      <c r="J65">
+        <v>0.3877320126616665</v>
+      </c>
+      <c r="K65">
+        <v>0.3831816048647305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1589742750640433</v>
+        <v>-0.1535960615309875</v>
       </c>
       <c r="C66">
-        <v>0.0463414896268505</v>
+        <v>-0.1123219887113099</v>
       </c>
       <c r="D66">
-        <v>-0.003134693491029365</v>
+        <v>0.03829863266278825</v>
       </c>
       <c r="E66">
-        <v>0.01914098426684705</v>
+        <v>-0.1143081880345853</v>
       </c>
       <c r="F66">
-        <v>0.01316135286751394</v>
+        <v>0.01186099154533531</v>
       </c>
       <c r="G66">
-        <v>0.2956740745536722</v>
+        <v>0.09698188439160357</v>
       </c>
       <c r="H66">
-        <v>0.1978138502229309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08817729123427816</v>
+      </c>
+      <c r="I66">
+        <v>-0.1489972092579224</v>
+      </c>
+      <c r="J66">
+        <v>-0.155920605778307</v>
+      </c>
+      <c r="K66">
+        <v>-0.13506764244365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1100778930691228</v>
+        <v>-0.07944523065145298</v>
       </c>
       <c r="C67">
-        <v>0.03659929101660666</v>
+        <v>-0.04455311139680451</v>
       </c>
       <c r="D67">
-        <v>-0.02290311500651278</v>
+        <v>0.08032764652645016</v>
       </c>
       <c r="E67">
-        <v>-0.02237898979999258</v>
+        <v>-0.002237872304616737</v>
       </c>
       <c r="F67">
-        <v>0.04205984827832752</v>
+        <v>-0.02801866264110695</v>
       </c>
       <c r="G67">
-        <v>0.04798071894756239</v>
+        <v>-0.06475793719916738</v>
       </c>
       <c r="H67">
-        <v>0.02364686493030983</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.01499417154115905</v>
+      </c>
+      <c r="I67">
+        <v>-0.001261798927987608</v>
+      </c>
+      <c r="J67">
+        <v>0.01407002529127262</v>
+      </c>
+      <c r="K67">
+        <v>0.007417897731793379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.03790355625721996</v>
+        <v>-0.08270510104258735</v>
       </c>
       <c r="C68">
-        <v>-0.2933390851662166</v>
+        <v>0.2864388207173403</v>
       </c>
       <c r="D68">
-        <v>-0.01118298129057897</v>
+        <v>0.01414120135757518</v>
       </c>
       <c r="E68">
-        <v>-0.004449419580013152</v>
+        <v>-0.02522178830206489</v>
       </c>
       <c r="F68">
-        <v>0.0008980324440252446</v>
+        <v>0.01741631548937104</v>
       </c>
       <c r="G68">
-        <v>-0.02020372022245708</v>
+        <v>0.03224541174402062</v>
       </c>
       <c r="H68">
-        <v>-0.02829610827708498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04114351294891862</v>
+      </c>
+      <c r="I68">
+        <v>-0.01201385474725131</v>
+      </c>
+      <c r="J68">
+        <v>0.00995895594301315</v>
+      </c>
+      <c r="K68">
+        <v>0.01096978538622297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04913021321061697</v>
+        <v>-0.03763565457530557</v>
       </c>
       <c r="C69">
-        <v>0.0127878787566474</v>
+        <v>-0.003640209487391082</v>
       </c>
       <c r="D69">
-        <v>0.003175327333202848</v>
+        <v>0.02412041949106682</v>
       </c>
       <c r="E69">
-        <v>-0.002716564078492691</v>
+        <v>-0.002913687530015089</v>
       </c>
       <c r="F69">
-        <v>0.002832385889889944</v>
+        <v>-0.01139456493590352</v>
       </c>
       <c r="G69">
-        <v>0.01131320129070713</v>
+        <v>0.02169537214760521</v>
       </c>
       <c r="H69">
-        <v>-0.02488716142420705</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.00741134418555145</v>
+      </c>
+      <c r="I69">
+        <v>0.01805481838448545</v>
+      </c>
+      <c r="J69">
+        <v>-0.008661699775338724</v>
+      </c>
+      <c r="K69">
+        <v>0.03010390208197015</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.08038562261683112</v>
+        <v>-0.04347179833961242</v>
       </c>
       <c r="C70">
-        <v>0.01059432807530641</v>
+        <v>0.0001659669238790094</v>
       </c>
       <c r="D70">
-        <v>-0.03314816590921074</v>
+        <v>0.03595968533991672</v>
       </c>
       <c r="E70">
-        <v>-0.02800632442092691</v>
+        <v>-0.03640612174741559</v>
       </c>
       <c r="F70">
-        <v>-0.01221062954480505</v>
+        <v>-0.03175540260428223</v>
       </c>
       <c r="G70">
-        <v>-0.007014750109579256</v>
+        <v>0.02723723272346361</v>
       </c>
       <c r="H70">
-        <v>0.02866812075893809</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.0002201757891264435</v>
+      </c>
+      <c r="I70">
+        <v>0.1198140193571267</v>
+      </c>
+      <c r="J70">
+        <v>0.1279844971857088</v>
+      </c>
+      <c r="K70">
+        <v>0.05579244264366057</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04799417687598714</v>
+        <v>-0.09571772714211188</v>
       </c>
       <c r="C71">
-        <v>-0.299519455936877</v>
+        <v>0.2994171931170718</v>
       </c>
       <c r="D71">
-        <v>-0.03031157369416592</v>
+        <v>0.01620680515735896</v>
       </c>
       <c r="E71">
-        <v>-0.001187414033903966</v>
+        <v>-0.02346487108653156</v>
       </c>
       <c r="F71">
-        <v>-0.005576869473285301</v>
+        <v>-0.01317223726682959</v>
       </c>
       <c r="G71">
-        <v>0.009917409591817753</v>
+        <v>0.04001974562156087</v>
       </c>
       <c r="H71">
-        <v>-0.01122725735377378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.04004454949184731</v>
+      </c>
+      <c r="I71">
+        <v>-0.0351066331427776</v>
+      </c>
+      <c r="J71">
+        <v>0.01056279193520002</v>
+      </c>
+      <c r="K71">
+        <v>0.0003830220995042281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1424414656041524</v>
+        <v>-0.1441190969968563</v>
       </c>
       <c r="C72">
-        <v>-0.02881545957727764</v>
+        <v>0.01157380769845182</v>
       </c>
       <c r="D72">
-        <v>0.2125148938309003</v>
+        <v>0.009651111627221232</v>
       </c>
       <c r="E72">
-        <v>-0.02600227797449538</v>
+        <v>0.008702093413547317</v>
       </c>
       <c r="F72">
-        <v>-0.04401174888511112</v>
+        <v>0.08479910976342633</v>
       </c>
       <c r="G72">
-        <v>0.05494093363804466</v>
+        <v>-0.02115814474650831</v>
       </c>
       <c r="H72">
-        <v>-0.1222854251134298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02587697073906379</v>
+      </c>
+      <c r="I72">
+        <v>-0.02129416710303125</v>
+      </c>
+      <c r="J72">
+        <v>0.008019044069166479</v>
+      </c>
+      <c r="K72">
+        <v>0.1497943014740463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2839470924075193</v>
+        <v>-0.2441442485049036</v>
       </c>
       <c r="C73">
-        <v>0.1467647281639367</v>
+        <v>-0.09491296897514463</v>
       </c>
       <c r="D73">
-        <v>-0.05905181457777926</v>
+        <v>0.02402223288830542</v>
       </c>
       <c r="E73">
-        <v>-0.1535621740086525</v>
+        <v>-0.1049356017678747</v>
       </c>
       <c r="F73">
-        <v>-0.3086432982684637</v>
+        <v>-0.1266323248352297</v>
       </c>
       <c r="G73">
-        <v>-0.2973701552914376</v>
+        <v>-0.2903722017064866</v>
       </c>
       <c r="H73">
-        <v>0.1865699347425611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2851324230622205</v>
+      </c>
+      <c r="I73">
+        <v>-0.1611110401620094</v>
+      </c>
+      <c r="J73">
+        <v>0.2122335820708954</v>
+      </c>
+      <c r="K73">
+        <v>-0.2551150012441019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.1016689265920408</v>
+        <v>-0.1132245630901036</v>
       </c>
       <c r="C74">
-        <v>0.03090357316563044</v>
+        <v>-0.04370239167547253</v>
       </c>
       <c r="D74">
-        <v>-0.0006949790940018452</v>
+        <v>0.02194252422728011</v>
       </c>
       <c r="E74">
-        <v>-0.02627269291093821</v>
+        <v>-0.005304272560656801</v>
       </c>
       <c r="F74">
-        <v>0.1145571300215168</v>
+        <v>-0.005262655665444239</v>
       </c>
       <c r="G74">
-        <v>-0.03560644732407633</v>
+        <v>0.05911979586206518</v>
       </c>
       <c r="H74">
-        <v>-0.02851812664538214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.08858239530326636</v>
+      </c>
+      <c r="I74">
+        <v>0.02824511856269055</v>
+      </c>
+      <c r="J74">
+        <v>-0.1111341916376306</v>
+      </c>
+      <c r="K74">
+        <v>0.09267535985979687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09247552620896668</v>
+        <v>-0.1131729694720687</v>
       </c>
       <c r="C75">
-        <v>0.01935822497607463</v>
+        <v>-0.04272479314384273</v>
       </c>
       <c r="D75">
-        <v>0.03164512141956292</v>
+        <v>0.007296122656551601</v>
       </c>
       <c r="E75">
-        <v>-0.03797528606055364</v>
+        <v>-0.001879021036065902</v>
       </c>
       <c r="F75">
-        <v>0.1163840504778467</v>
+        <v>0.01394079575703866</v>
       </c>
       <c r="G75">
-        <v>-0.04933301695385916</v>
+        <v>-0.001986985919682449</v>
       </c>
       <c r="H75">
-        <v>-0.02010120727058629</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.048974928187026</v>
+      </c>
+      <c r="I75">
+        <v>0.05699043926762374</v>
+      </c>
+      <c r="J75">
+        <v>-0.1268781350661126</v>
+      </c>
+      <c r="K75">
+        <v>0.08174470798208143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1379978423595541</v>
+        <v>-0.05220601219938497</v>
       </c>
       <c r="C76">
-        <v>0.02608066614465233</v>
+        <v>-0.01147522190332113</v>
       </c>
       <c r="D76">
-        <v>-0.007118159227799134</v>
+        <v>0.02849028373301766</v>
       </c>
       <c r="E76">
-        <v>-0.01068982805191352</v>
+        <v>0.0009192366042051054</v>
       </c>
       <c r="F76">
-        <v>0.2565185342008529</v>
+        <v>-0.03183568234689098</v>
       </c>
       <c r="G76">
-        <v>-0.09193878339901262</v>
+        <v>-0.03794836540800894</v>
       </c>
       <c r="H76">
-        <v>-0.04319227586868877</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.05032512213483294</v>
+      </c>
+      <c r="I76">
+        <v>0.05060924874496368</v>
+      </c>
+      <c r="J76">
+        <v>-0.08281535331603003</v>
+      </c>
+      <c r="K76">
+        <v>0.09259172241112086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08302526326312309</v>
+        <v>-0.07737454833608041</v>
       </c>
       <c r="C77">
-        <v>-0.008203279824276728</v>
+        <v>-0.07875489798431692</v>
       </c>
       <c r="D77">
-        <v>-0.05522430876880337</v>
+        <v>-0.003489902784676858</v>
       </c>
       <c r="E77">
-        <v>0.1017247536405737</v>
+        <v>-0.002259039157966092</v>
       </c>
       <c r="F77">
-        <v>-0.255827211668574</v>
+        <v>-0.04749447816203133</v>
       </c>
       <c r="G77">
-        <v>0.1518465691871402</v>
+        <v>0.06011084904796431</v>
       </c>
       <c r="H77">
-        <v>0.1135773193927523</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.2753042003600775</v>
+      </c>
+      <c r="I77">
+        <v>-0.1905226324729291</v>
+      </c>
+      <c r="J77">
+        <v>0.2372564256320081</v>
+      </c>
+      <c r="K77">
+        <v>0.06247356722439162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2218449171384735</v>
+        <v>-0.154840440961991</v>
       </c>
       <c r="C78">
-        <v>0.055023064550837</v>
+        <v>-0.06884530575028776</v>
       </c>
       <c r="D78">
-        <v>-0.08246462662201616</v>
+        <v>0.09789382171923766</v>
       </c>
       <c r="E78">
-        <v>0.183415368464563</v>
+        <v>0.264479610199957</v>
       </c>
       <c r="F78">
-        <v>-0.04414266653459666</v>
+        <v>0.01327608178244971</v>
       </c>
       <c r="G78">
-        <v>0.1442497375310222</v>
+        <v>-0.6667838505771507</v>
       </c>
       <c r="H78">
-        <v>-0.06707791205173617</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.497094219635754</v>
+      </c>
+      <c r="I78">
+        <v>0.2734347895160651</v>
+      </c>
+      <c r="J78">
+        <v>-0.1335373905765069</v>
+      </c>
+      <c r="K78">
+        <v>-0.102020770019399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1366603813877579</v>
+        <v>-0.1363236476005907</v>
       </c>
       <c r="C79">
-        <v>0.008393070993070958</v>
+        <v>-0.04166028936914498</v>
       </c>
       <c r="D79">
-        <v>0.004997619527653994</v>
+        <v>-0.008500670747199696</v>
       </c>
       <c r="E79">
-        <v>-0.0219511424889787</v>
+        <v>-0.0121107865339048</v>
       </c>
       <c r="F79">
-        <v>0.1463825141033424</v>
+        <v>-0.008058509433646006</v>
       </c>
       <c r="G79">
-        <v>0.002429501242389265</v>
+        <v>0.02636527927265507</v>
       </c>
       <c r="H79">
-        <v>-0.05561595646571425</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.04572925031741716</v>
+      </c>
+      <c r="I79">
+        <v>0.01708938823769632</v>
+      </c>
+      <c r="J79">
+        <v>-0.1156752615814506</v>
+      </c>
+      <c r="K79">
+        <v>0.1333231575531741</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03425382511882373</v>
+        <v>-0.06626699188184861</v>
       </c>
       <c r="C80">
-        <v>0.00836359007950755</v>
+        <v>-0.05001298983282689</v>
       </c>
       <c r="D80">
-        <v>-0.01940337679937053</v>
+        <v>0.04871467568319022</v>
       </c>
       <c r="E80">
-        <v>-0.03904341429544001</v>
+        <v>-0.05649117779700972</v>
       </c>
       <c r="F80">
-        <v>-0.03161395424341981</v>
+        <v>-0.001240101770536991</v>
       </c>
       <c r="G80">
-        <v>0.06390923361635689</v>
+        <v>0.08059404447016821</v>
       </c>
       <c r="H80">
-        <v>-0.1102622580958759</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.03192977267664395</v>
+      </c>
+      <c r="I80">
+        <v>0.2846684580785666</v>
+      </c>
+      <c r="J80">
+        <v>0.04847844601457709</v>
+      </c>
+      <c r="K80">
+        <v>-0.1793978702781644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1115846524906359</v>
+        <v>-0.1326839480014221</v>
       </c>
       <c r="C81">
-        <v>0.002594883665245582</v>
+        <v>-0.04394017807175683</v>
       </c>
       <c r="D81">
-        <v>-0.01407923774325411</v>
+        <v>0.002776670164471546</v>
       </c>
       <c r="E81">
-        <v>-0.01365618855988529</v>
+        <v>-0.002373159321469502</v>
       </c>
       <c r="F81">
-        <v>0.1317018646568808</v>
+        <v>-0.01558310317606044</v>
       </c>
       <c r="G81">
-        <v>-0.03023345864790932</v>
+        <v>0.05308060499102907</v>
       </c>
       <c r="H81">
-        <v>-0.001509824322116101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.03712136478007171</v>
+      </c>
+      <c r="I81">
+        <v>0.04933079955287241</v>
+      </c>
+      <c r="J81">
+        <v>-0.149672368959953</v>
+      </c>
+      <c r="K81">
+        <v>0.0880936886630173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1098282334667321</v>
+        <v>-0.1469232483772595</v>
       </c>
       <c r="C82">
-        <v>0.02377903843661701</v>
+        <v>-0.04282210257067483</v>
       </c>
       <c r="D82">
-        <v>-0.03486881213103858</v>
+        <v>0.01595117964804042</v>
       </c>
       <c r="E82">
-        <v>-0.06651949496588751</v>
+        <v>-0.05109411165394544</v>
       </c>
       <c r="F82">
-        <v>0.2454149101513879</v>
+        <v>-0.0307599252243287</v>
       </c>
       <c r="G82">
-        <v>0.01086306188067303</v>
+        <v>0.07087236488455831</v>
       </c>
       <c r="H82">
-        <v>-0.0268528114309623</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1332414362356134</v>
+      </c>
+      <c r="I82">
+        <v>0.09630097938425676</v>
+      </c>
+      <c r="J82">
+        <v>-0.1990087875977443</v>
+      </c>
+      <c r="K82">
+        <v>0.04423229398078535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1103567795107755</v>
+        <v>-0.08684329250318149</v>
       </c>
       <c r="C83">
-        <v>0.04921606857771773</v>
+        <v>-0.06425331777736175</v>
       </c>
       <c r="D83">
-        <v>-0.06472945524212416</v>
+        <v>-0.01736263423609035</v>
       </c>
       <c r="E83">
-        <v>-0.02845530213191783</v>
+        <v>0.01213097006694609</v>
       </c>
       <c r="F83">
-        <v>-0.05285356732941102</v>
+        <v>-0.004841185913654057</v>
       </c>
       <c r="G83">
-        <v>0.07000885145450803</v>
+        <v>0.1052921483356466</v>
       </c>
       <c r="H83">
-        <v>0.08051680063607659</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02861330035589577</v>
+      </c>
+      <c r="I83">
+        <v>0.3694281699147307</v>
+      </c>
+      <c r="J83">
+        <v>0.3146348640421797</v>
+      </c>
+      <c r="K83">
+        <v>-0.07526781752379133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05163446393422627</v>
+        <v>-0.06239548930452778</v>
       </c>
       <c r="C84">
-        <v>0.02268693771457371</v>
+        <v>-0.002339073397378712</v>
       </c>
       <c r="D84">
-        <v>0.05956241335826037</v>
+        <v>-0.02617455114066319</v>
       </c>
       <c r="E84">
-        <v>0.03127127196455435</v>
+        <v>-0.03469688943881389</v>
       </c>
       <c r="F84">
-        <v>0.06516767831292843</v>
+        <v>-0.0003934409746823114</v>
       </c>
       <c r="G84">
-        <v>-0.02990322728795599</v>
+        <v>0.002477903824587836</v>
       </c>
       <c r="H84">
-        <v>0.005726690023094077</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.01333399706921262</v>
+      </c>
+      <c r="I84">
+        <v>-0.0757470296879709</v>
+      </c>
+      <c r="J84">
+        <v>-0.0638946750780337</v>
+      </c>
+      <c r="K84">
+        <v>-0.4132965057903544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1007335545651726</v>
+        <v>-0.1199504861992049</v>
       </c>
       <c r="C85">
-        <v>0.02123113284049531</v>
+        <v>-0.03297566365010424</v>
       </c>
       <c r="D85">
-        <v>-0.02394942817723933</v>
+        <v>0.005044576286580668</v>
       </c>
       <c r="E85">
-        <v>-0.02646388816727568</v>
+        <v>-0.01867872260302559</v>
       </c>
       <c r="F85">
-        <v>0.1884789340077238</v>
+        <v>-0.03382641962127188</v>
       </c>
       <c r="G85">
-        <v>-0.009292856664369194</v>
+        <v>0.03601493123861706</v>
       </c>
       <c r="H85">
-        <v>-0.1021697357490556</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.03774839857328196</v>
+      </c>
+      <c r="I85">
+        <v>0.06427045360467465</v>
+      </c>
+      <c r="J85">
+        <v>-0.1325116625309805</v>
+      </c>
+      <c r="K85">
+        <v>0.1123118837134457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06685253473878462</v>
+        <v>-0.1327879218861818</v>
       </c>
       <c r="C86">
-        <v>0.02123100167155879</v>
+        <v>-0.02392599499904753</v>
       </c>
       <c r="D86">
-        <v>-0.0856079018386021</v>
+        <v>-0.9341822413099461</v>
       </c>
       <c r="E86">
-        <v>0.05290351086217717</v>
+        <v>0.1398476535187048</v>
       </c>
       <c r="F86">
-        <v>-0.01811849273198421</v>
+        <v>0.1194722187658632</v>
       </c>
       <c r="G86">
-        <v>0.07940628719990146</v>
+        <v>0.06543127485297398</v>
       </c>
       <c r="H86">
-        <v>-0.263766540303537</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.04823221313613164</v>
+      </c>
+      <c r="I86">
+        <v>0.09892654296174884</v>
+      </c>
+      <c r="J86">
+        <v>-0.01770052164501021</v>
+      </c>
+      <c r="K86">
+        <v>-0.08802292586733032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1075599404743067</v>
+        <v>-0.1180166202778384</v>
       </c>
       <c r="C87">
-        <v>0.05994063929579809</v>
+        <v>-0.09996845163286223</v>
       </c>
       <c r="D87">
-        <v>-0.01692612208877715</v>
+        <v>0.01262282019538366</v>
       </c>
       <c r="E87">
-        <v>0.0634191796190781</v>
+        <v>-0.004745927020866114</v>
       </c>
       <c r="F87">
-        <v>-0.03002680292208789</v>
+        <v>-0.02917427174014745</v>
       </c>
       <c r="G87">
-        <v>0.1163191050558961</v>
+        <v>0.04695064450840671</v>
       </c>
       <c r="H87">
-        <v>-0.01704811178348703</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1548027598870705</v>
+      </c>
+      <c r="I87">
+        <v>-0.06853097500400897</v>
+      </c>
+      <c r="J87">
+        <v>0.1685126106443227</v>
+      </c>
+      <c r="K87">
+        <v>0.1499234425988387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06980318178098482</v>
+        <v>-0.05724390298360692</v>
       </c>
       <c r="C88">
-        <v>0.04325259360494749</v>
+        <v>-0.03307193939651337</v>
       </c>
       <c r="D88">
-        <v>-0.02564182304016564</v>
+        <v>0.01343787874896045</v>
       </c>
       <c r="E88">
-        <v>0.01430828061588947</v>
+        <v>-0.04718903441203978</v>
       </c>
       <c r="F88">
-        <v>0.02157267693783058</v>
+        <v>-0.008091266457264754</v>
       </c>
       <c r="G88">
-        <v>0.05423902580912925</v>
+        <v>0.01323385361903769</v>
       </c>
       <c r="H88">
-        <v>0.0152097425026443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.01806924552996586</v>
+      </c>
+      <c r="I88">
+        <v>0.01510377517465623</v>
+      </c>
+      <c r="J88">
+        <v>-0.02543879381089938</v>
+      </c>
+      <c r="K88">
+        <v>0.02555206589828805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09134695676779192</v>
+        <v>-0.1484488035445421</v>
       </c>
       <c r="C89">
-        <v>-0.3810482392155485</v>
+        <v>0.3719215598939161</v>
       </c>
       <c r="D89">
-        <v>-0.08739262545108305</v>
+        <v>0.01563213692626347</v>
       </c>
       <c r="E89">
-        <v>0.02239999103509343</v>
+        <v>0.02666998865037465</v>
       </c>
       <c r="F89">
-        <v>-0.01976558092494383</v>
+        <v>-0.06370194432954313</v>
       </c>
       <c r="G89">
-        <v>-0.003920976273023863</v>
+        <v>0.01183310025500762</v>
       </c>
       <c r="H89">
-        <v>0.01297720870290428</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.03724975626353978</v>
+      </c>
+      <c r="I89">
+        <v>0.03328321933001661</v>
+      </c>
+      <c r="J89">
+        <v>0.02309282694550445</v>
+      </c>
+      <c r="K89">
+        <v>-0.09220605112534323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07159119050959174</v>
+        <v>-0.1111766693937962</v>
       </c>
       <c r="C90">
-        <v>-0.2912749055829569</v>
+        <v>0.2910693471629283</v>
       </c>
       <c r="D90">
-        <v>-0.0370482829471862</v>
+        <v>0.003775490446281421</v>
       </c>
       <c r="E90">
-        <v>0.04761694542559792</v>
+        <v>-0.02702951069469293</v>
       </c>
       <c r="F90">
-        <v>-0.04311051453002976</v>
+        <v>-0.01753624136637964</v>
       </c>
       <c r="G90">
-        <v>0.03267972500441226</v>
+        <v>0.04040351602680514</v>
       </c>
       <c r="H90">
-        <v>0.03714838737507498</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.04585862885640161</v>
+      </c>
+      <c r="I90">
+        <v>-0.01723615372517777</v>
+      </c>
+      <c r="J90">
+        <v>0.04590650546159264</v>
+      </c>
+      <c r="K90">
+        <v>-0.04612203187220762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.0810683524297587</v>
+        <v>-0.08386856207045762</v>
       </c>
       <c r="C91">
-        <v>0.02020787317056643</v>
+        <v>-0.03431499248814198</v>
       </c>
       <c r="D91">
-        <v>-0.01184242939571345</v>
+        <v>-0.01739560312916501</v>
       </c>
       <c r="E91">
-        <v>-0.02450974378747406</v>
+        <v>-0.003901769897260282</v>
       </c>
       <c r="F91">
-        <v>0.08963733829557113</v>
+        <v>-0.02253739622167571</v>
       </c>
       <c r="G91">
-        <v>-0.06688939471961793</v>
+        <v>0.01505928967607412</v>
       </c>
       <c r="H91">
-        <v>0.01960260296836229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.05369384640148146</v>
+      </c>
+      <c r="I91">
+        <v>0.03857364281626544</v>
+      </c>
+      <c r="J91">
+        <v>-0.07735589209990251</v>
+      </c>
+      <c r="K91">
+        <v>0.07175577944328411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.06430916698985094</v>
+        <v>-0.1210710542439172</v>
       </c>
       <c r="C92">
-        <v>-0.3500630177328921</v>
+        <v>0.3388232482239268</v>
       </c>
       <c r="D92">
-        <v>-0.05133719219122083</v>
+        <v>0.01475925568970389</v>
       </c>
       <c r="E92">
-        <v>0.0308914252323739</v>
+        <v>0.01918379431353497</v>
       </c>
       <c r="F92">
-        <v>-0.05648958005400231</v>
+        <v>-0.02417086951180574</v>
       </c>
       <c r="G92">
-        <v>-0.01880254906407079</v>
+        <v>0.02604672436172159</v>
       </c>
       <c r="H92">
-        <v>0.0185530927787348</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.07022412474017672</v>
+      </c>
+      <c r="I92">
+        <v>0.02559964662912296</v>
+      </c>
+      <c r="J92">
+        <v>-0.02885473164506241</v>
+      </c>
+      <c r="K92">
+        <v>-0.0408011838595861</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08300103557025156</v>
+        <v>-0.1170368141057097</v>
       </c>
       <c r="C93">
-        <v>-0.3031648610176563</v>
+        <v>0.3208611226629263</v>
       </c>
       <c r="D93">
-        <v>-0.02350107358273952</v>
+        <v>-0.01066363264318253</v>
       </c>
       <c r="E93">
-        <v>0.0221720804566017</v>
+        <v>-0.04774395733145814</v>
       </c>
       <c r="F93">
-        <v>-0.0408793854759815</v>
+        <v>-0.02056957550144874</v>
       </c>
       <c r="G93">
-        <v>-0.02040318013525687</v>
+        <v>0.03743752084362498</v>
       </c>
       <c r="H93">
-        <v>-0.006684871751619054</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01031984192495254</v>
+      </c>
+      <c r="I93">
+        <v>-0.02693632906099117</v>
+      </c>
+      <c r="J93">
+        <v>0.02439840985066421</v>
+      </c>
+      <c r="K93">
+        <v>-0.0198839155503232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09381547261162826</v>
+        <v>-0.1285606708476104</v>
       </c>
       <c r="C94">
-        <v>0.04192271937776568</v>
+        <v>-0.04935841833466988</v>
       </c>
       <c r="D94">
-        <v>0.01767546782032491</v>
+        <v>0.0279391020058404</v>
       </c>
       <c r="E94">
-        <v>-0.009814821799011412</v>
+        <v>0.008071193806690934</v>
       </c>
       <c r="F94">
-        <v>0.1320589718208815</v>
+        <v>-0.0147470445025052</v>
       </c>
       <c r="G94">
-        <v>-0.05803184942315974</v>
+        <v>0.01444665623051621</v>
       </c>
       <c r="H94">
-        <v>-0.03979591356534336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.08307351519496897</v>
+      </c>
+      <c r="I94">
+        <v>0.02093669498035733</v>
+      </c>
+      <c r="J94">
+        <v>-0.1233187225434275</v>
+      </c>
+      <c r="K94">
+        <v>0.05094825158826041</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1282350537854733</v>
+        <v>-0.120456984835549</v>
       </c>
       <c r="C95">
-        <v>0.08268179938268368</v>
+        <v>-0.06025313851850882</v>
       </c>
       <c r="D95">
-        <v>-0.07286039490820499</v>
+        <v>0.01775749631796538</v>
       </c>
       <c r="E95">
-        <v>0.07233537645885393</v>
+        <v>0.02408083051460645</v>
       </c>
       <c r="F95">
-        <v>-0.08587902921529071</v>
+        <v>-0.05688700222099424</v>
       </c>
       <c r="G95">
-        <v>0.1310259271503388</v>
+        <v>0.0100830015002985</v>
       </c>
       <c r="H95">
-        <v>-0.0706883051896981</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1262268368493206</v>
+      </c>
+      <c r="I95">
+        <v>-0.02166217757657959</v>
+      </c>
+      <c r="J95">
+        <v>0.02773117534348124</v>
+      </c>
+      <c r="K95">
+        <v>-0.07514637797411441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009658657911064421</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0006848319196514911</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0003072987332828413</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.00751827447550747</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1.785305989693372e-05</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.006835472891306704</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.02115685983188059</v>
+      </c>
+      <c r="I96">
+        <v>-0.01229276786176166</v>
+      </c>
+      <c r="J96">
+        <v>0.01634986541208328</v>
+      </c>
+      <c r="K96">
+        <v>0.02302295706305784</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.1797033355790406</v>
+        <v>-0.1792696439315985</v>
       </c>
       <c r="C97">
-        <v>-0.08347626778689148</v>
+        <v>0.001117604382530659</v>
       </c>
       <c r="D97">
-        <v>0.9130595259339829</v>
+        <v>0.165345359777032</v>
       </c>
       <c r="E97">
-        <v>0.07585693462196288</v>
+        <v>0.2414264352108565</v>
       </c>
       <c r="F97">
-        <v>-0.06459383744342681</v>
+        <v>0.897200520014417</v>
       </c>
       <c r="G97">
-        <v>0.08440557594540941</v>
+        <v>0.04821076537916596</v>
       </c>
       <c r="H97">
-        <v>0.002683772172493977</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.09539934324041208</v>
+      </c>
+      <c r="I97">
+        <v>-0.1091819472166204</v>
+      </c>
+      <c r="J97">
+        <v>0.01985867248078473</v>
+      </c>
+      <c r="K97">
+        <v>-0.06299211686848655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3241202316004045</v>
+        <v>-0.2691597182143977</v>
       </c>
       <c r="C98">
-        <v>0.05777524705243587</v>
+        <v>-0.03050531194433889</v>
       </c>
       <c r="D98">
-        <v>-0.02873474844330116</v>
+        <v>-0.02020915935025205</v>
       </c>
       <c r="E98">
-        <v>-0.2474145582699472</v>
+        <v>0.02070310652501014</v>
       </c>
       <c r="F98">
-        <v>-0.1423784866425934</v>
+        <v>-0.04890015746893957</v>
       </c>
       <c r="G98">
-        <v>-0.2770559170895727</v>
+        <v>-0.2169199991733364</v>
       </c>
       <c r="H98">
-        <v>0.2713445415645414</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.3155374697694368</v>
+      </c>
+      <c r="I98">
+        <v>0.2142165731063443</v>
+      </c>
+      <c r="J98">
+        <v>0.09893796096677934</v>
+      </c>
+      <c r="K98">
+        <v>0.03131893660897887</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08658929205040158</v>
+        <v>-0.0542344314004336</v>
       </c>
       <c r="C99">
-        <v>0.02362005730563822</v>
+        <v>-0.008084964106523812</v>
       </c>
       <c r="D99">
-        <v>-0.0142623565327142</v>
+        <v>0.02550957943619882</v>
       </c>
       <c r="E99">
-        <v>-0.005270834161890546</v>
+        <v>0.014350056945738</v>
       </c>
       <c r="F99">
-        <v>-0.009054991339604251</v>
+        <v>-0.02503566859475643</v>
       </c>
       <c r="G99">
-        <v>0.02817638910802977</v>
+        <v>-0.00859539142790572</v>
       </c>
       <c r="H99">
-        <v>0.05252313905649689</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.003997640990566259</v>
+      </c>
+      <c r="I99">
+        <v>-0.001305036573751172</v>
+      </c>
+      <c r="J99">
+        <v>-0.01631356033829327</v>
+      </c>
+      <c r="K99">
+        <v>-0.003451619198204047</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02008122737159297</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.05407956104782449</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.1723115207658508</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.05407833184698208</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03686613782049809</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.2482825700673487</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.1110049293987714</v>
+      </c>
+      <c r="I100">
+        <v>0.4959664810252931</v>
+      </c>
+      <c r="J100">
+        <v>0.2107257797645784</v>
+      </c>
+      <c r="K100">
+        <v>-0.3253784896870348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05923967573858296</v>
+        <v>-0.03828495529745008</v>
       </c>
       <c r="C101">
-        <v>0.003037325374442029</v>
+        <v>-0.009120341599896617</v>
       </c>
       <c r="D101">
-        <v>-0.03467576420682586</v>
+        <v>0.001188517185437566</v>
       </c>
       <c r="E101">
-        <v>0.03860414862116012</v>
+        <v>-0.0210854934613851</v>
       </c>
       <c r="F101">
-        <v>0.03151995533664408</v>
+        <v>-0.02122839377744178</v>
       </c>
       <c r="G101">
-        <v>0.04256675672129303</v>
+        <v>0.07560938933120381</v>
       </c>
       <c r="H101">
-        <v>-0.08474519818693543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.04384427452527877</v>
+      </c>
+      <c r="I101">
+        <v>0.03405935833451417</v>
+      </c>
+      <c r="J101">
+        <v>-0.03117325252003749</v>
+      </c>
+      <c r="K101">
+        <v>0.07311562057887419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4273,19 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4308,19 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4341,15 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
